--- a/Data/EC/NIT-9007753993.xlsx
+++ b/Data/EC/NIT-9007753993.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69FEC2B8-62CF-4697-8816-3D5572E75757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F035FA84-B9F0-4693-A4EE-0F22CF399C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D9C3229E-084B-418E-AF40-EAF5C87E5EA9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CA90E6A4-E844-4F3F-A419-72D1623D8AAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="93">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,232 +65,223 @@
     <t>CC</t>
   </si>
   <si>
+    <t>20036760</t>
+  </si>
+  <si>
+    <t>MIGUEL STEVEN HERNANDEZ LOPEZ</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1050966475</t>
+  </si>
+  <si>
+    <t>DAMARIS BALLESTEROS ZAMBRANO</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>947414812091992</t>
+  </si>
+  <si>
+    <t>JOSE LUZARDO LABRADOR PARRA</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>70440095</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS PEREZ RIOS</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
     <t>10944588</t>
   </si>
   <si>
     <t>GABRIEL ANTONIO GONZALEZ PETRO</t>
   </si>
   <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>9298368</t>
+  </si>
+  <si>
+    <t>JUAN PABLO CASTILLO GONZALEZ</t>
+  </si>
+  <si>
+    <t>1007256080</t>
+  </si>
+  <si>
+    <t>MICHEL ANDREA SILVA BENITEZ</t>
+  </si>
+  <si>
+    <t>1140874117</t>
+  </si>
+  <si>
+    <t>JOHN WADI VILLARREAL DIAZ</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>9298368</t>
-  </si>
-  <si>
-    <t>JUAN PABLO CASTILLO GONZALEZ</t>
-  </si>
-  <si>
-    <t>1128056658</t>
-  </si>
-  <si>
-    <t>LILIBETH BLANCO BATISTA</t>
-  </si>
-  <si>
-    <t>1047436026</t>
-  </si>
-  <si>
-    <t>YESID BLANCO BLANCO</t>
-  </si>
-  <si>
-    <t>20036760</t>
-  </si>
-  <si>
-    <t>MIGUEL STEVEN HERNANDEZ LOPEZ</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1050966475</t>
-  </si>
-  <si>
-    <t>DAMARIS BALLESTEROS ZAMBRANO</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>947414812091992</t>
-  </si>
-  <si>
-    <t>JOSE LUZARDO LABRADOR PARRA</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>1007256080</t>
-  </si>
-  <si>
-    <t>MICHEL ANDREA SILVA BENITEZ</t>
-  </si>
-  <si>
-    <t>70440095</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS PEREZ RIOS</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>1140874117</t>
-  </si>
-  <si>
-    <t>JOHN WADI VILLARREAL DIAZ</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -389,7 +380,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -402,9 +395,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -604,23 +595,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,10 +639,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -704,7 +695,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47583B23-8336-1074-9F0E-780CCFEEFD66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D116D92-8E06-B0C5-B82E-74426DCA63F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,8 +1046,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A0F20A-2128-41A9-ADAB-DA478ED96E4D}">
-  <dimension ref="B2:J116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F36B8CD-50E0-4013-9F25-72E27EF27333}">
+  <dimension ref="B2:J117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1080,7 +1071,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1125,7 +1116,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1157,12 +1148,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>7328137</v>
+        <v>7485503</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1173,17 +1164,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F13" s="5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1210,13 +1201,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1233,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>42738</v>
+        <v>32000</v>
       </c>
       <c r="G16" s="18">
-        <v>1068452</v>
+        <v>800000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1247,19 +1238,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>42738</v>
+        <v>1110</v>
       </c>
       <c r="G17" s="18">
-        <v>1068452</v>
+        <v>832700</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1267,22 +1258,22 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F18" s="18">
-        <v>42738</v>
+        <v>66560</v>
       </c>
       <c r="G18" s="18">
-        <v>1068452</v>
+        <v>3380000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1290,22 +1281,22 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F19" s="18">
-        <v>42738</v>
+        <v>66560</v>
       </c>
       <c r="G19" s="18">
-        <v>1068452</v>
+        <v>3380000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1313,22 +1304,22 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F20" s="18">
-        <v>42738</v>
+        <v>66560</v>
       </c>
       <c r="G20" s="18">
-        <v>1068452</v>
+        <v>3380000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1336,22 +1327,22 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F21" s="18">
-        <v>42738</v>
+        <v>66560</v>
       </c>
       <c r="G21" s="18">
-        <v>1068452</v>
+        <v>3380000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1359,22 +1350,22 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
-        <v>42738</v>
+        <v>66560</v>
       </c>
       <c r="G22" s="18">
-        <v>1068452</v>
+        <v>3380000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1382,22 +1373,22 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F23" s="18">
-        <v>42738</v>
+        <v>66560</v>
       </c>
       <c r="G23" s="18">
-        <v>1068452</v>
+        <v>3380000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1405,22 +1396,22 @@
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F24" s="18">
-        <v>42738</v>
+        <v>66560</v>
       </c>
       <c r="G24" s="18">
-        <v>1068452</v>
+        <v>3380000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1428,22 +1419,22 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F25" s="18">
-        <v>42738</v>
+        <v>66560</v>
       </c>
       <c r="G25" s="18">
-        <v>1068452</v>
+        <v>3380000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1451,22 +1442,22 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F26" s="18">
-        <v>42738</v>
+        <v>66560</v>
       </c>
       <c r="G26" s="18">
-        <v>1068452</v>
+        <v>3380000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1474,22 +1465,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F27" s="18">
-        <v>42738</v>
+        <v>66560</v>
       </c>
       <c r="G27" s="18">
-        <v>1068452</v>
+        <v>3380000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1497,22 +1488,22 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
-        <v>42738</v>
+        <v>66560</v>
       </c>
       <c r="G28" s="18">
-        <v>1068452</v>
+        <v>3380000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1523,19 +1514,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F29" s="18">
-        <v>42738</v>
+        <v>12874</v>
       </c>
       <c r="G29" s="18">
-        <v>1068452</v>
+        <v>877803</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1546,13 +1537,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F30" s="18">
         <v>42738</v>
@@ -1569,13 +1560,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F31" s="18">
         <v>42738</v>
@@ -1592,13 +1583,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F32" s="18">
         <v>42738</v>
@@ -1615,13 +1606,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F33" s="18">
         <v>42738</v>
@@ -1638,13 +1629,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F34" s="18">
         <v>42738</v>
@@ -1661,13 +1652,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F35" s="18">
         <v>42738</v>
@@ -1684,13 +1675,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F36" s="18">
         <v>42738</v>
@@ -1707,13 +1698,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F37" s="18">
         <v>42738</v>
@@ -1730,13 +1721,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F38" s="18">
         <v>42738</v>
@@ -1753,13 +1744,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F39" s="18">
         <v>42738</v>
@@ -1776,13 +1767,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F40" s="18">
         <v>42738</v>
@@ -1799,13 +1790,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F41" s="18">
         <v>42738</v>
@@ -1822,13 +1813,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F42" s="18">
         <v>42738</v>
@@ -1845,13 +1836,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F43" s="18">
         <v>42738</v>
@@ -1868,13 +1859,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F44" s="18">
         <v>42738</v>
@@ -1891,13 +1882,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F45" s="18">
         <v>42738</v>
@@ -1914,13 +1905,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F46" s="18">
         <v>42738</v>
@@ -1937,13 +1928,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F47" s="18">
         <v>42738</v>
@@ -1957,22 +1948,22 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F48" s="18">
-        <v>42738</v>
+        <v>135200</v>
       </c>
       <c r="G48" s="18">
-        <v>1068452</v>
+        <v>3380000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1983,13 +1974,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F49" s="18">
         <v>42738</v>
@@ -2003,22 +1994,22 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F50" s="18">
-        <v>42738</v>
+        <v>135200</v>
       </c>
       <c r="G50" s="18">
-        <v>1068452</v>
+        <v>3380000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2029,13 +2020,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F51" s="18">
         <v>42738</v>
@@ -2049,22 +2040,22 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F52" s="18">
-        <v>42738</v>
+        <v>135200</v>
       </c>
       <c r="G52" s="18">
-        <v>1068452</v>
+        <v>3380000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2075,13 +2066,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F53" s="18">
         <v>42738</v>
@@ -2095,22 +2086,22 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F54" s="18">
-        <v>42738</v>
+        <v>135200</v>
       </c>
       <c r="G54" s="18">
-        <v>1068452</v>
+        <v>3380000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2121,13 +2112,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F55" s="18">
         <v>42738</v>
@@ -2141,22 +2132,22 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F56" s="18">
-        <v>42738</v>
+        <v>135200</v>
       </c>
       <c r="G56" s="18">
-        <v>1068452</v>
+        <v>3380000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2167,19 +2158,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F57" s="18">
-        <v>40712</v>
+        <v>42738</v>
       </c>
       <c r="G57" s="18">
-        <v>1607028</v>
+        <v>1068452</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2187,22 +2178,22 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F58" s="18">
-        <v>70816</v>
+        <v>135200</v>
       </c>
       <c r="G58" s="18">
-        <v>1770400</v>
+        <v>3380000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2213,19 +2204,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D59" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F59" s="18">
-        <v>57756</v>
+        <v>42738</v>
       </c>
       <c r="G59" s="18">
-        <v>1443895</v>
+        <v>1068452</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2233,22 +2224,22 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F60" s="18">
-        <v>32000</v>
+        <v>135200</v>
       </c>
       <c r="G60" s="18">
-        <v>800000</v>
+        <v>3380000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2259,19 +2250,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F61" s="18">
-        <v>1110</v>
+        <v>42738</v>
       </c>
       <c r="G61" s="18">
-        <v>832700</v>
+        <v>1068452</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2279,16 +2270,16 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F62" s="18">
         <v>135200</v>
@@ -2302,22 +2293,22 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F63" s="18">
-        <v>135200</v>
+        <v>42738</v>
       </c>
       <c r="G63" s="18">
-        <v>3380000</v>
+        <v>1068452</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2325,16 +2316,16 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
         <v>135200</v>
@@ -2348,22 +2339,22 @@
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
-        <v>135200</v>
+        <v>42738</v>
       </c>
       <c r="G65" s="18">
-        <v>3380000</v>
+        <v>1068452</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2371,16 +2362,16 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="F66" s="18">
         <v>135200</v>
@@ -2394,22 +2385,22 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F67" s="18">
-        <v>135200</v>
+        <v>42738</v>
       </c>
       <c r="G67" s="18">
-        <v>3380000</v>
+        <v>1068452</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2417,16 +2408,16 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F68" s="18">
         <v>135200</v>
@@ -2440,22 +2431,22 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F69" s="18">
-        <v>135200</v>
+        <v>42738</v>
       </c>
       <c r="G69" s="18">
-        <v>3380000</v>
+        <v>1068452</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2463,16 +2454,16 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="F70" s="18">
         <v>135200</v>
@@ -2486,22 +2477,22 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F71" s="18">
-        <v>135200</v>
+        <v>42738</v>
       </c>
       <c r="G71" s="18">
-        <v>3380000</v>
+        <v>1068452</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2509,22 +2500,22 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="D72" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D72" s="17" t="s">
-        <v>66</v>
-      </c>
       <c r="E72" s="16" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F72" s="18">
-        <v>135200</v>
+        <v>40712</v>
       </c>
       <c r="G72" s="18">
-        <v>3380000</v>
+        <v>1607028</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2532,16 +2523,16 @@
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F73" s="18">
         <v>135200</v>
@@ -2555,22 +2546,22 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F74" s="18">
-        <v>135200</v>
+        <v>93600</v>
       </c>
       <c r="G74" s="18">
-        <v>3380000</v>
+        <v>2700000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2578,22 +2569,22 @@
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F75" s="18">
-        <v>135200</v>
+        <v>102051</v>
       </c>
       <c r="G75" s="18">
-        <v>3380000</v>
+        <v>4783622</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2601,22 +2592,22 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="F76" s="18">
-        <v>135200</v>
+        <v>42738</v>
       </c>
       <c r="G76" s="18">
-        <v>3380000</v>
+        <v>1068452</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2624,16 +2615,16 @@
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F77" s="18">
         <v>135200</v>
@@ -2647,22 +2638,22 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="F78" s="18">
-        <v>135200</v>
+        <v>108000</v>
       </c>
       <c r="G78" s="18">
-        <v>3380000</v>
+        <v>2700000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2670,22 +2661,22 @@
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F79" s="18">
-        <v>135200</v>
+        <v>42738</v>
       </c>
       <c r="G79" s="18">
-        <v>3380000</v>
+        <v>1068452</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2693,16 +2684,16 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="F80" s="18">
         <v>135200</v>
@@ -2716,22 +2707,22 @@
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="F81" s="18">
-        <v>135200</v>
+        <v>108000</v>
       </c>
       <c r="G81" s="18">
-        <v>3380000</v>
+        <v>2700000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2739,22 +2730,22 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F82" s="18">
-        <v>135200</v>
+        <v>42738</v>
       </c>
       <c r="G82" s="18">
-        <v>3380000</v>
+        <v>1068452</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2762,16 +2753,16 @@
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F83" s="18">
         <v>135200</v>
@@ -2785,22 +2776,22 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F84" s="18">
-        <v>135200</v>
+        <v>108000</v>
       </c>
       <c r="G84" s="18">
-        <v>3380000</v>
+        <v>2700000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2808,22 +2799,22 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="F85" s="18">
-        <v>135200</v>
+        <v>42738</v>
       </c>
       <c r="G85" s="18">
-        <v>3380000</v>
+        <v>1068452</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2831,19 +2822,19 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F86" s="18">
-        <v>66560</v>
+        <v>135200</v>
       </c>
       <c r="G86" s="18">
         <v>3380000</v>
@@ -2854,22 +2845,22 @@
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F87" s="18">
-        <v>66560</v>
+        <v>108000</v>
       </c>
       <c r="G87" s="18">
-        <v>3380000</v>
+        <v>2700000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2877,22 +2868,22 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F88" s="18">
-        <v>66560</v>
+        <v>42738</v>
       </c>
       <c r="G88" s="18">
-        <v>3380000</v>
+        <v>1068452</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2900,19 +2891,19 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F89" s="18">
-        <v>66560</v>
+        <v>135200</v>
       </c>
       <c r="G89" s="18">
         <v>3380000</v>
@@ -2923,22 +2914,22 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F90" s="18">
-        <v>66560</v>
+        <v>108000</v>
       </c>
       <c r="G90" s="18">
-        <v>3380000</v>
+        <v>2700000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2946,22 +2937,22 @@
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F91" s="18">
-        <v>66560</v>
+        <v>42738</v>
       </c>
       <c r="G91" s="18">
-        <v>3380000</v>
+        <v>1068452</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2969,19 +2960,19 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F92" s="18">
-        <v>66560</v>
+        <v>135200</v>
       </c>
       <c r="G92" s="18">
         <v>3380000</v>
@@ -2992,22 +2983,22 @@
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F93" s="18">
-        <v>66560</v>
+        <v>108000</v>
       </c>
       <c r="G93" s="18">
-        <v>3380000</v>
+        <v>2700000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3015,22 +3006,22 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F94" s="18">
-        <v>66560</v>
+        <v>42738</v>
       </c>
       <c r="G94" s="18">
-        <v>3380000</v>
+        <v>1068452</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3038,19 +3029,19 @@
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>76</v>
       </c>
       <c r="F95" s="18">
-        <v>66560</v>
+        <v>135200</v>
       </c>
       <c r="G95" s="18">
         <v>3380000</v>
@@ -3061,22 +3052,22 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F96" s="18">
-        <v>66560</v>
+        <v>108000</v>
       </c>
       <c r="G96" s="18">
-        <v>3380000</v>
+        <v>2700000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3087,19 +3078,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="F97" s="18">
-        <v>108000</v>
+        <v>42738</v>
       </c>
       <c r="G97" s="18">
-        <v>2700000</v>
+        <v>1068452</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3107,22 +3098,22 @@
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="F98" s="18">
-        <v>108000</v>
+        <v>135200</v>
       </c>
       <c r="G98" s="18">
-        <v>2700000</v>
+        <v>3380000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3133,13 +3124,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="F99" s="18">
         <v>108000</v>
@@ -3156,19 +3147,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D100" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F100" s="18">
-        <v>108000</v>
+        <v>42738</v>
       </c>
       <c r="G100" s="18">
-        <v>2700000</v>
+        <v>1068452</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3176,22 +3167,22 @@
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C101" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D101" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F101" s="18">
-        <v>108000</v>
+        <v>135200</v>
       </c>
       <c r="G101" s="18">
-        <v>2700000</v>
+        <v>3380000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3202,13 +3193,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F102" s="18">
         <v>108000</v>
@@ -3225,19 +3216,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D103" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E103" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F103" s="18">
-        <v>108000</v>
+        <v>42738</v>
       </c>
       <c r="G103" s="18">
-        <v>2700000</v>
+        <v>1068452</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3245,22 +3236,22 @@
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="D104" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E104" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F104" s="18">
-        <v>108000</v>
+        <v>135200</v>
       </c>
       <c r="G104" s="18">
-        <v>2700000</v>
+        <v>3380000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3271,13 +3262,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D105" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E105" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F105" s="18">
         <v>108000</v>
@@ -3294,19 +3285,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F106" s="18">
-        <v>108000</v>
+        <v>42738</v>
       </c>
       <c r="G106" s="18">
-        <v>2700000</v>
+        <v>1068452</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3314,22 +3305,22 @@
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="F107" s="18">
-        <v>108000</v>
+        <v>135200</v>
       </c>
       <c r="G107" s="18">
-        <v>2700000</v>
+        <v>3380000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3340,16 +3331,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="F108" s="18">
-        <v>93600</v>
+        <v>108000</v>
       </c>
       <c r="G108" s="18">
         <v>2700000</v>
@@ -3363,75 +3354,98 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D109" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E109" s="16" t="s">
-        <v>82</v>
-      </c>
       <c r="F109" s="18">
-        <v>12874</v>
+        <v>42738</v>
       </c>
       <c r="G109" s="18">
-        <v>908526</v>
+        <v>1068452</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
       <c r="J109" s="20"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E110" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F110" s="24">
-        <v>102051</v>
-      </c>
-      <c r="G110" s="24">
-        <v>4783622</v>
-      </c>
-      <c r="H110" s="25"/>
-      <c r="I110" s="25"/>
-      <c r="J110" s="26"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C115" s="32"/>
-      <c r="H115" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+      <c r="B110" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F110" s="18">
+        <v>135200</v>
+      </c>
+      <c r="G110" s="18">
+        <v>3380000</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F111" s="24">
+        <v>108000</v>
+      </c>
+      <c r="G111" s="24">
+        <v>2700000</v>
+      </c>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="26"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C116" s="32"/>
       <c r="H116" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
     </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C117" s="32"/>
+      <c r="H117" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B117:C117"/>
     <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="H117:J117"/>
     <mergeCell ref="H116:J116"/>
-    <mergeCell ref="H115:J115"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
